--- a/simulation/robotstudio_sim/scripts/fitting_output/threshold0.5/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/threshold0.5/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>max_error1</t>
   </si>
@@ -40,6 +40,12 @@
     <t>max_error2</t>
   </si>
   <si>
+    <t>max_error1_idx</t>
+  </si>
+  <si>
+    <t>max_error2_idx</t>
+  </si>
+  <si>
     <t>total_time</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>min_speed</t>
+  </si>
+  <si>
+    <t>jacobian_min_sing</t>
+  </si>
+  <si>
+    <t>jacobian_min_sing_idx</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:D28"/>
+  <dimension ref="A4:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.382611611390012</v>
+        <v>1.076476232786018</v>
       </c>
       <c r="C6">
         <v>2.802225011866563</v>
@@ -445,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.349059689793319</v>
+        <v>1.091200335700632</v>
       </c>
       <c r="C7">
         <v>2.34648154490674</v>
@@ -459,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.349059689793319</v>
+        <v>1.163537767403631</v>
       </c>
       <c r="C8">
         <v>2.152013727452277</v>
@@ -489,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.433790474814681</v>
+        <v>1.133770143802973</v>
       </c>
       <c r="C11">
         <v>2.90584517547952</v>
@@ -503,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.399469518732524</v>
+        <v>1.206833535713409</v>
       </c>
       <c r="C12">
         <v>2.43016308031576</v>
@@ -517,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.399469518732524</v>
+        <v>1.302172779755169</v>
       </c>
       <c r="C13">
         <v>2.133334800239996</v>
@@ -547,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>36.108</v>
+        <v>6570</v>
       </c>
       <c r="C16">
-        <v>5.876</v>
+        <v>172</v>
       </c>
       <c r="D16">
-        <v>4.692</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -561,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>34.488</v>
+        <v>8788</v>
       </c>
       <c r="C17">
-        <v>3.624</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>2.052</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -575,13 +587,13 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>34.416</v>
+        <v>8768</v>
       </c>
       <c r="C18">
-        <v>3.288</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>1.608</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -605,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>137.9829461879805</v>
+        <v>3463</v>
       </c>
       <c r="C21">
-        <v>504.7591256828337</v>
+        <v>172</v>
       </c>
       <c r="D21">
-        <v>1001.371568949071</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -619,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>140.0285769478934</v>
+        <v>3387</v>
       </c>
       <c r="C22">
-        <v>505.0236544168075</v>
+        <v>169</v>
       </c>
       <c r="D22">
-        <v>1268.904454279707</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -633,13 +645,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>140.0285769478934</v>
+        <v>3387</v>
       </c>
       <c r="C23">
-        <v>511.5964154788602</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>1346.502899903415</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -663,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>3.906702560934284</v>
+        <v>36.24</v>
       </c>
       <c r="C26">
-        <v>1.828121447644875</v>
+        <v>6.012</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4.827000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -677,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.991421423716877</v>
+        <v>35.164</v>
       </c>
       <c r="C27">
-        <v>8.949065248182285</v>
+        <v>4.344</v>
       </c>
       <c r="D27">
-        <v>3.991421423714217</v>
+        <v>3.124</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -691,13 +703,245 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>3.991421423716877</v>
+        <v>35.084</v>
       </c>
       <c r="C28">
-        <v>8.949065248180299</v>
+        <v>4.050999999999999</v>
       </c>
       <c r="D28">
-        <v>3.991421423715104</v>
+        <v>2.616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>84.29303919945981</v>
+      </c>
+      <c r="C31">
+        <v>504.7591256828337</v>
+      </c>
+      <c r="D31">
+        <v>1668.952614914724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>81.11076979528941</v>
+      </c>
+      <c r="C32">
+        <v>404.0189235333384</v>
+      </c>
+      <c r="D32">
+        <v>1268.904454279989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>123.2065529058568</v>
+      </c>
+      <c r="C33">
+        <v>682.1285539722679</v>
+      </c>
+      <c r="D33">
+        <v>1346.481477511355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0.9604440999343195</v>
+      </c>
+      <c r="C36">
+        <v>0.960444099935599</v>
+      </c>
+      <c r="D36">
+        <v>1.280592133247276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>0.9604440999343195</v>
+      </c>
+      <c r="C37">
+        <v>0.7683552799482745</v>
+      </c>
+      <c r="D37">
+        <v>0.960444099935599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>0.9604440999360255</v>
+      </c>
+      <c r="C38">
+        <v>1.280592133248034</v>
+      </c>
+      <c r="D38">
+        <v>0.9604440999353857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.3856245494246014</v>
+      </c>
+      <c r="C41">
+        <v>0.3856245494246014</v>
+      </c>
+      <c r="D41">
+        <v>0.3856245494246014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0.3856245494246014</v>
+      </c>
+      <c r="C42">
+        <v>0.3856245494246014</v>
+      </c>
+      <c r="D42">
+        <v>0.3856245494246014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0.3856245494246014</v>
+      </c>
+      <c r="C43">
+        <v>0.3856245494246014</v>
+      </c>
+      <c r="D43">
+        <v>0.3856245494246014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/robotstudio_sim/scripts/fitting_output/threshold0.5/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/threshold0.5/comparison.xlsx
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.076476232786018</v>
+        <v>1.015978188624473</v>
       </c>
       <c r="C6">
         <v>2.802225011866563</v>
@@ -457,13 +457,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.091200335700632</v>
+        <v>0.9938257486841843</v>
       </c>
       <c r="C7">
-        <v>2.34648154490674</v>
+        <v>2.334915434586507</v>
       </c>
       <c r="D7">
-        <v>3.74590418337515</v>
+        <v>3.743065012017611</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -471,13 +471,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.163537767403631</v>
+        <v>0.9551856796702739</v>
       </c>
       <c r="C8">
         <v>2.152013727452277</v>
       </c>
       <c r="D8">
-        <v>3.726142334753494</v>
+        <v>3.724807100413058</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.133770143802973</v>
+        <v>0.9439226672263716</v>
       </c>
       <c r="C11">
         <v>2.90584517547952</v>
@@ -515,13 +515,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.206833535713409</v>
+        <v>0.8758256379490015</v>
       </c>
       <c r="C12">
-        <v>2.43016308031576</v>
+        <v>2.418280887901817</v>
       </c>
       <c r="D12">
-        <v>3.846661941462203</v>
+        <v>3.843476753196144</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -529,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.302172779755169</v>
+        <v>0.8755337764901365</v>
       </c>
       <c r="C13">
         <v>2.133334800239996</v>
       </c>
       <c r="D13">
-        <v>3.776700271333777</v>
+        <v>3.775807497694085</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>6570</v>
+        <v>2833</v>
       </c>
       <c r="C16">
         <v>172</v>
@@ -573,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>8788</v>
+        <v>5035</v>
       </c>
       <c r="C17">
         <v>169</v>
       </c>
       <c r="D17">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>8768</v>
+        <v>5084</v>
       </c>
       <c r="C18">
         <v>64</v>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>3463</v>
+        <v>1137</v>
       </c>
       <c r="C21">
         <v>172</v>
@@ -631,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>3387</v>
+        <v>4021</v>
       </c>
       <c r="C22">
         <v>169</v>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>3387</v>
+        <v>4031</v>
       </c>
       <c r="C23">
         <v>64</v>
@@ -675,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>36.24</v>
+        <v>35.832</v>
       </c>
       <c r="C26">
-        <v>6.012</v>
+        <v>5.508</v>
       </c>
       <c r="D26">
-        <v>4.827000000000001</v>
+        <v>4.327999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -689,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>35.164</v>
+        <v>34.968</v>
       </c>
       <c r="C27">
-        <v>4.344</v>
+        <v>4.068000000000001</v>
       </c>
       <c r="D27">
-        <v>3.124</v>
+        <v>2.819999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -703,13 +703,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>35.084</v>
+        <v>34.968</v>
       </c>
       <c r="C28">
-        <v>4.050999999999999</v>
+        <v>3.795</v>
       </c>
       <c r="D28">
-        <v>2.616</v>
+        <v>2.215999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -733,13 +733,13 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>84.29303919945981</v>
+        <v>51.56245833828844</v>
       </c>
       <c r="C31">
         <v>504.7591256828337</v>
       </c>
       <c r="D31">
-        <v>1668.952614914724</v>
+        <v>991.4987761074054</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>81.11076979528941</v>
+        <v>53.66752504287578</v>
       </c>
       <c r="C32">
         <v>404.0189235333384</v>
       </c>
       <c r="D32">
-        <v>1268.904454279989</v>
+        <v>1246.344062552945</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -761,13 +761,13 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>123.2065529058568</v>
+        <v>51.73280594068589</v>
       </c>
       <c r="C33">
-        <v>682.1285539722679</v>
+        <v>682.4289552173286</v>
       </c>
       <c r="D33">
-        <v>1346.481477511355</v>
+        <v>1355.252158545962</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -797,7 +797,7 @@
         <v>0.960444099935599</v>
       </c>
       <c r="D36">
-        <v>1.280592133247276</v>
+        <v>0.7683552799485475</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -819,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>0.9604440999360255</v>
+        <v>0.9604440999343195</v>
       </c>
       <c r="C38">
-        <v>1.280592133248034</v>
+        <v>1.280592133247276</v>
       </c>
       <c r="D38">
-        <v>0.9604440999353857</v>
+        <v>0.960444099935599</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>45</v>
